--- a/data/trans_orig/IP33-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP33-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF663006-479C-45E7-B96F-21BA87899247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E176816-7816-4E56-8485-96DDB82D0A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{66BB8889-9863-4B42-A63E-6FD495620909}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DD950ECA-14D0-459E-9C8D-18B305B8FCED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -101,6 +101,66 @@
     <t>84,98%</t>
   </si>
   <si>
+    <t>Soltero/a</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>Separado/a</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
     <t>Divorciado/a</t>
   </si>
   <si>
@@ -131,66 +191,6 @@
     <t>2,09%</t>
   </si>
   <si>
-    <t>Separado/a</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>Soltero/a</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
     <t>Viudo/a</t>
   </si>
   <si>
@@ -221,6 +221,135 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -251,6 +380,57 @@
     <t>90,19%</t>
   </si>
   <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
     <t>0,91%</t>
   </si>
   <si>
@@ -278,63 +458,6 @@
     <t>3,36%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
     <t>1,57%</t>
   </si>
   <si>
@@ -353,132 +476,9 @@
     <t>3,14%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
     <t>86,11%</t>
   </si>
   <si>
@@ -506,6 +506,60 @@
     <t>87,23%</t>
   </si>
   <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
     <t>1,27%</t>
   </si>
   <si>
@@ -530,60 +584,6 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
     <t>1,8%</t>
   </si>
   <si>
@@ -632,6 +632,57 @@
     <t>80,21%</t>
   </si>
   <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
     <t>2,21%</t>
   </si>
   <si>
@@ -659,57 +710,6 @@
     <t>3,53%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
     <t>0,46%</t>
   </si>
   <si>
@@ -728,6 +728,108 @@
     <t>0,14%</t>
   </si>
   <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
     <t>83,34%</t>
   </si>
   <si>
@@ -755,6 +857,45 @@
     <t>86,71%</t>
   </si>
   <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
     <t>6,09%</t>
   </si>
   <si>
@@ -776,48 +917,6 @@
     <t>6,97%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
     <t>3,87%</t>
   </si>
   <si>
@@ -833,105 +932,6 @@
     <t>3,65%</t>
   </si>
   <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
     <t>82,55%</t>
   </si>
   <si>
@@ -959,6 +959,48 @@
     <t>83,3%</t>
   </si>
   <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
     <t>5,05%</t>
   </si>
   <si>
@@ -977,48 +1019,6 @@
     <t>4,54%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
     <t>1,54%</t>
   </si>
   <si>
@@ -1061,6 +1061,45 @@
     <t>72,02%</t>
   </si>
   <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
     <t>1,2%</t>
   </si>
   <si>
@@ -1085,48 +1124,120 @@
     <t>1,53%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
     <t>0,59%</t>
   </si>
   <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
     <t>78,49%</t>
   </si>
   <si>
@@ -1154,6 +1265,57 @@
     <t>80,38%</t>
   </si>
   <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
     <t>3,41%</t>
   </si>
   <si>
@@ -1178,57 +1340,6 @@
     <t>9,56%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
     <t>4,28%</t>
   </si>
   <si>
@@ -1244,117 +1355,6 @@
     <t>4,35%</t>
   </si>
   <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
     <t>74,2%</t>
   </si>
   <si>
@@ -1382,6 +1382,48 @@
     <t>75,68%</t>
   </si>
   <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
     <t>3,46%</t>
   </si>
   <si>
@@ -1409,48 +1451,6 @@
     <t>5,48%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
     <t>2,0%</t>
   </si>
   <si>
@@ -1502,54 +1502,54 @@
     <t>78,12%</t>
   </si>
   <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
     <t>13,49%</t>
   </si>
   <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
     <t>17,08%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
     <t>6,47%</t>
   </si>
   <si>
@@ -1559,6 +1559,81 @@
     <t>16,89%</t>
   </si>
   <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
     <t>63,53%</t>
   </si>
   <si>
@@ -1586,6 +1661,45 @@
     <t>71,89%</t>
   </si>
   <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
     <t>7,39%</t>
   </si>
   <si>
@@ -1610,45 +1724,6 @@
     <t>17,11%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
     <t>13,75%</t>
   </si>
   <si>
@@ -1667,81 +1742,6 @@
     <t>10,99%</t>
   </si>
   <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
     <t>69,97%</t>
   </si>
   <si>
@@ -1769,6 +1769,45 @@
     <t>71,44%</t>
   </si>
   <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
     <t>14,73%</t>
   </si>
   <si>
@@ -1785,45 +1824,6 @@
   </si>
   <si>
     <t>13,87%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
   </si>
   <si>
     <t>10,6%</t>
@@ -2224,7 +2224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85D1A47-9D0B-4751-9305-02BA516CE8C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389642E3-A186-4CA1-9DB1-E9D94AAC59AF}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2393,10 +2393,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" s="7">
-        <v>3325</v>
+        <v>29122</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2408,10 +2408,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="I5" s="7">
-        <v>1290</v>
+        <v>27249</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2423,10 +2423,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="N5" s="7">
-        <v>4615</v>
+        <v>56372</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2495,10 +2495,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>29122</v>
+        <v>3325</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2510,10 +2510,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>27249</v>
+        <v>1290</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2525,10 +2525,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>56372</v>
+        <v>4615</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -2570,7 +2570,7 @@
         <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>55</v>
@@ -2650,10 +2650,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="D10" s="7">
-        <v>249791</v>
+        <v>189017</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -2665,10 +2665,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>345</v>
+        <v>262</v>
       </c>
       <c r="I10" s="7">
-        <v>231980</v>
+        <v>176523</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -2680,10 +2680,10 @@
         <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>720</v>
+        <v>549</v>
       </c>
       <c r="N10" s="7">
-        <v>481771</v>
+        <v>365540</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -2701,10 +2701,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>2575</v>
+        <v>14544</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -2716,10 +2716,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I11" s="7">
-        <v>9126</v>
+        <v>12537</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -2731,10 +2731,10 @@
         <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N11" s="7">
-        <v>11701</v>
+        <v>27081</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -2752,10 +2752,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>12207</v>
+        <v>9180</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -2770,7 +2770,7 @@
         <v>12</v>
       </c>
       <c r="I12" s="7">
-        <v>8151</v>
+        <v>8140</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -2782,10 +2782,10 @@
         <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N12" s="7">
-        <v>20358</v>
+        <v>17319</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -2803,49 +2803,49 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>8546</v>
+        <v>3268</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1349</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="7">
-        <v>11</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7552</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>7</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4616</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M13" s="7">
-        <v>23</v>
-      </c>
-      <c r="N13" s="7">
-        <v>16098</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,49 +2854,49 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>8379</v>
+        <v>2033</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="7">
+        <v>8</v>
+      </c>
+      <c r="I14" s="7">
+        <v>6098</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="7">
-        <v>13</v>
-      </c>
-      <c r="I14" s="7">
-        <v>8794</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>11</v>
+      </c>
+      <c r="N14" s="7">
+        <v>8131</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="M14" s="7">
-        <v>26</v>
-      </c>
-      <c r="N14" s="7">
-        <v>17173</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,10 +2905,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D15" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -2920,10 +2920,10 @@
         <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>394</v>
+        <v>303</v>
       </c>
       <c r="I15" s="7">
-        <v>265603</v>
+        <v>204646</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -2935,10 +2935,10 @@
         <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>816</v>
+        <v>633</v>
       </c>
       <c r="N15" s="7">
-        <v>547101</v>
+        <v>422687</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -2952,55 +2952,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>287</v>
+        <v>375</v>
       </c>
       <c r="D16" s="7">
-        <v>189017</v>
+        <v>249791</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="7">
+        <v>345</v>
+      </c>
+      <c r="I16" s="7">
+        <v>231980</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="7">
-        <v>262</v>
-      </c>
-      <c r="I16" s="7">
-        <v>176523</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>720</v>
+      </c>
+      <c r="N16" s="7">
+        <v>481771</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="M16" s="7">
-        <v>549</v>
-      </c>
-      <c r="N16" s="7">
-        <v>365540</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,49 +3009,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>3268</v>
+        <v>8546</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="7">
+        <v>11</v>
+      </c>
+      <c r="I17" s="7">
+        <v>7552</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1349</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>23</v>
+      </c>
+      <c r="N17" s="7">
+        <v>16098</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="M17" s="7">
-        <v>7</v>
-      </c>
-      <c r="N17" s="7">
-        <v>4616</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,49 +3060,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D18" s="7">
-        <v>9180</v>
+        <v>12207</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
       </c>
       <c r="I18" s="7">
-        <v>8140</v>
+        <v>8151</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>30</v>
+      </c>
+      <c r="N18" s="7">
+        <v>20358</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="M18" s="7">
-        <v>25</v>
-      </c>
-      <c r="N18" s="7">
-        <v>17319</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,49 +3111,49 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>14544</v>
+        <v>2575</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>13</v>
+      </c>
+      <c r="I19" s="7">
+        <v>9126</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H19" s="7">
-        <v>19</v>
-      </c>
-      <c r="I19" s="7">
-        <v>12537</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>17</v>
+      </c>
+      <c r="N19" s="7">
+        <v>11701</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="7">
-        <v>41</v>
-      </c>
-      <c r="N19" s="7">
-        <v>27081</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,28 +3162,28 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D20" s="7">
-        <v>2033</v>
+        <v>8379</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>13</v>
+      </c>
+      <c r="I20" s="7">
+        <v>8794</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="H20" s="7">
-        <v>8</v>
-      </c>
-      <c r="I20" s="7">
-        <v>6098</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>142</v>
@@ -3192,16 +3192,16 @@
         <v>143</v>
       </c>
       <c r="M20" s="7">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="N20" s="7">
-        <v>8131</v>
+        <v>17173</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>145</v>
@@ -3213,10 +3213,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D21" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -3228,10 +3228,10 @@
         <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>303</v>
+        <v>394</v>
       </c>
       <c r="I21" s="7">
-        <v>204646</v>
+        <v>265603</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -3243,10 +3243,10 @@
         <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>633</v>
+        <v>816</v>
       </c>
       <c r="N21" s="7">
-        <v>422687</v>
+        <v>547101</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -3317,10 +3317,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D23" s="7">
-        <v>9168</v>
+        <v>52212</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>155</v>
@@ -3332,10 +3332,10 @@
         <v>157</v>
       </c>
       <c r="H23" s="7">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I23" s="7">
-        <v>11764</v>
+        <v>47339</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>158</v>
@@ -3347,10 +3347,10 @@
         <v>160</v>
       </c>
       <c r="M23" s="7">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="N23" s="7">
-        <v>20933</v>
+        <v>99551</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>161</v>
@@ -3359,7 +3359,7 @@
         <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3374,13 @@
         <v>25906</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H24" s="7">
         <v>36</v>
@@ -3389,13 +3389,13 @@
         <v>24273</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>74</v>
@@ -3404,13 +3404,13 @@
         <v>50178</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,49 +3419,49 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D25" s="7">
-        <v>52212</v>
+        <v>9168</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I25" s="7">
-        <v>47339</v>
+        <v>11764</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="N25" s="7">
-        <v>99551</v>
+        <v>20933</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,10 +3491,10 @@
         <v>16024</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>183</v>
@@ -3582,7 +3582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617B753E-13E8-481A-BC05-70D4F51AB4C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CC4DDA-6F96-4568-84CF-E95193314A95}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3751,10 +3751,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D5" s="7">
-        <v>5289</v>
+        <v>44074</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>197</v>
@@ -3766,10 +3766,10 @@
         <v>199</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="I5" s="7">
-        <v>4551</v>
+        <v>39552</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>200</v>
@@ -3781,10 +3781,10 @@
         <v>202</v>
       </c>
       <c r="M5" s="7">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="N5" s="7">
-        <v>9840</v>
+        <v>83626</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>203</v>
@@ -3853,10 +3853,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>44074</v>
+        <v>5289</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>214</v>
@@ -3868,10 +3868,10 @@
         <v>216</v>
       </c>
       <c r="H7" s="7">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>39552</v>
+        <v>4551</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>217</v>
@@ -3883,10 +3883,10 @@
         <v>219</v>
       </c>
       <c r="M7" s="7">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>83626</v>
+        <v>9840</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>220</v>
@@ -3913,7 +3913,7 @@
         <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>224</v>
@@ -3928,7 +3928,7 @@
         <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>226</v>
@@ -3946,7 +3946,7 @@
         <v>228</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,10 +4008,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="D10" s="7">
-        <v>226513</v>
+        <v>210123</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>229</v>
@@ -4023,10 +4023,10 @@
         <v>231</v>
       </c>
       <c r="H10" s="7">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="I10" s="7">
-        <v>216989</v>
+        <v>182612</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>232</v>
@@ -4038,10 +4038,10 @@
         <v>234</v>
       </c>
       <c r="M10" s="7">
-        <v>643</v>
+        <v>548</v>
       </c>
       <c r="N10" s="7">
-        <v>443502</v>
+        <v>392735</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>235</v>
@@ -4059,49 +4059,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
-        <v>16555</v>
+        <v>17804</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I11" s="7">
-        <v>10439</v>
+        <v>27734</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="N11" s="7">
-        <v>26994</v>
+        <v>45538</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,49 +4110,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>10249</v>
+        <v>6094</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I12" s="7">
-        <v>10423</v>
+        <v>9357</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>207</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M12" s="7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N12" s="7">
-        <v>20672</v>
+        <v>15452</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,46 +4161,46 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7">
+        <v>7302</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="7">
         <v>12</v>
       </c>
-      <c r="D13" s="7">
-        <v>7956</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H13" s="7">
-        <v>18</v>
-      </c>
       <c r="I13" s="7">
-        <v>13110</v>
+        <v>8849</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N13" s="7">
-        <v>21066</v>
+        <v>16151</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>258</v>
@@ -4212,49 +4212,49 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>10515</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>920</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>920</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4724</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="M14" s="7">
-        <v>22</v>
-      </c>
-      <c r="N14" s="7">
-        <v>15239</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,10 +4263,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="D15" s="7">
-        <v>271788</v>
+        <v>241324</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -4278,10 +4278,10 @@
         <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="I15" s="7">
-        <v>255685</v>
+        <v>229472</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -4293,10 +4293,10 @@
         <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>764</v>
+        <v>655</v>
       </c>
       <c r="N15" s="7">
-        <v>527473</v>
+        <v>470796</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -4310,55 +4310,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="D16" s="7">
-        <v>210123</v>
+        <v>226513</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>309</v>
+      </c>
+      <c r="I16" s="7">
+        <v>216989</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="H16" s="7">
-        <v>256</v>
-      </c>
-      <c r="I16" s="7">
-        <v>182612</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>643</v>
+      </c>
+      <c r="N16" s="7">
+        <v>443502</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="M16" s="7">
-        <v>548</v>
-      </c>
-      <c r="N16" s="7">
-        <v>392735</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,49 +4367,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>7302</v>
+        <v>7956</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="G17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="7">
+        <v>18</v>
+      </c>
+      <c r="I17" s="7">
+        <v>13110</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H17" s="7">
-        <v>12</v>
-      </c>
-      <c r="I17" s="7">
-        <v>8849</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>30</v>
+      </c>
+      <c r="N17" s="7">
+        <v>21066</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="M17" s="7">
-        <v>22</v>
-      </c>
-      <c r="N17" s="7">
-        <v>16151</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,49 +4418,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>6094</v>
+        <v>10249</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>282</v>
-      </c>
       <c r="H18" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I18" s="7">
-        <v>9357</v>
+        <v>10423</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>207</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M18" s="7">
+        <v>30</v>
+      </c>
+      <c r="N18" s="7">
+        <v>20672</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="M18" s="7">
-        <v>22</v>
-      </c>
-      <c r="N18" s="7">
-        <v>15452</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,49 +4469,49 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" s="7">
-        <v>17804</v>
+        <v>16555</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>15</v>
+      </c>
+      <c r="I19" s="7">
+        <v>10439</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="H19" s="7">
-        <v>38</v>
-      </c>
-      <c r="I19" s="7">
-        <v>27734</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>39</v>
+      </c>
+      <c r="N19" s="7">
+        <v>26994</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="M19" s="7">
-        <v>61</v>
-      </c>
-      <c r="N19" s="7">
-        <v>45538</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,49 +4520,49 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>10515</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>25</v>
+        <v>292</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>293</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>294</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>920</v>
+        <v>4724</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>294</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>25</v>
+        <v>295</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="N20" s="7">
-        <v>920</v>
+        <v>15239</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>295</v>
+        <v>37</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>296</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,10 +4571,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="D21" s="7">
-        <v>241324</v>
+        <v>271788</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -4586,10 +4586,10 @@
         <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="I21" s="7">
-        <v>229472</v>
+        <v>255685</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -4601,10 +4601,10 @@
         <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>655</v>
+        <v>764</v>
       </c>
       <c r="N21" s="7">
-        <v>470796</v>
+        <v>527473</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -4675,49 +4675,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="D23" s="7">
-        <v>29147</v>
+        <v>69834</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>307</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H23" s="7">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="I23" s="7">
-        <v>23839</v>
+        <v>80396</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M23" s="7">
+        <v>215</v>
+      </c>
+      <c r="N23" s="7">
+        <v>150231</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="N23" s="7">
-        <v>52985</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>310</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4732,13 @@
         <v>20658</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -4747,13 +4747,13 @@
         <v>24149</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M24" s="7">
         <v>65</v>
@@ -4762,13 +4762,13 @@
         <v>44806</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,46 +4777,46 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D25" s="7">
-        <v>69834</v>
+        <v>29147</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>319</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>320</v>
       </c>
       <c r="H25" s="7">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="I25" s="7">
-        <v>80396</v>
+        <v>23839</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>75</v>
+      </c>
+      <c r="N25" s="7">
+        <v>52985</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="M25" s="7">
-        <v>215</v>
-      </c>
-      <c r="N25" s="7">
-        <v>150231</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>325</v>
@@ -4849,7 +4849,7 @@
         <v>6984</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>329</v>
@@ -4864,13 +4864,13 @@
         <v>18603</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,7 +4940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A63837-C55F-4014-BD5F-994137D33C10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8CF49D-0CE4-4BD7-AB40-97AE21621B84}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5085,7 +5085,7 @@
         <v>336</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>447</v>
@@ -5109,10 +5109,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="D5" s="7">
-        <v>2548</v>
+        <v>60264</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>340</v>
@@ -5124,34 +5124,34 @@
         <v>342</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="I5" s="7">
-        <v>544</v>
+        <v>54362</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>175</v>
       </c>
       <c r="N5" s="7">
-        <v>3091</v>
+        <v>114625</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5166,13 @@
         <v>6370</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -5184,10 +5184,10 @@
         <v>328</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M6" s="7">
         <v>17</v>
@@ -5199,10 +5199,10 @@
         <v>53</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,40 +5211,40 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>60264</v>
+        <v>2548</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>54362</v>
+        <v>544</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>357</v>
       </c>
       <c r="M7" s="7">
-        <v>175</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>114625</v>
+        <v>3091</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>358</v>
@@ -5268,13 +5268,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5283,10 +5283,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>361</v>
@@ -5298,13 +5298,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,10 +5366,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="D10" s="7">
-        <v>221059</v>
+        <v>187288</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>362</v>
@@ -5381,10 +5381,10 @@
         <v>364</v>
       </c>
       <c r="H10" s="7">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="I10" s="7">
-        <v>203880</v>
+        <v>172115</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>365</v>
@@ -5396,10 +5396,10 @@
         <v>367</v>
       </c>
       <c r="M10" s="7">
-        <v>585</v>
+        <v>537</v>
       </c>
       <c r="N10" s="7">
-        <v>424938</v>
+        <v>359403</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>368</v>
@@ -5417,49 +5417,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7">
-        <v>14914</v>
+        <v>37962</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H11" s="7">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I11" s="7">
-        <v>26726</v>
+        <v>38163</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M11" s="7">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="N11" s="7">
-        <v>41640</v>
+        <v>76125</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,49 +5468,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7">
-        <v>11296</v>
+        <v>13047</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H12" s="7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I12" s="7">
-        <v>7080</v>
+        <v>10980</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>92</v>
+        <v>384</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M12" s="7">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N12" s="7">
-        <v>18376</v>
+        <v>24027</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,25 +5519,25 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>22294</v>
+        <v>8263</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>387</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>389</v>
       </c>
       <c r="H13" s="7">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>26558</v>
+        <v>11627</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>390</v>
@@ -5549,19 +5549,19 @@
         <v>392</v>
       </c>
       <c r="M13" s="7">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="N13" s="7">
-        <v>48852</v>
+        <v>19889</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,49 +5570,49 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>12066</v>
+        <v>2822</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>4</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2449</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="M14" s="7">
+        <v>8</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5271</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3525</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M14" s="7">
-        <v>20</v>
-      </c>
-      <c r="N14" s="7">
-        <v>15592</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,10 +5621,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="D15" s="7">
-        <v>281629</v>
+        <v>249382</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -5636,10 +5636,10 @@
         <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I15" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -5651,10 +5651,10 @@
         <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>756</v>
+        <v>722</v>
       </c>
       <c r="N15" s="7">
-        <v>549399</v>
+        <v>484715</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -5668,55 +5668,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="D16" s="7">
-        <v>187288</v>
+        <v>221059</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>285</v>
+      </c>
+      <c r="I16" s="7">
+        <v>203880</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="H16" s="7">
-        <v>265</v>
-      </c>
-      <c r="I16" s="7">
-        <v>172115</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>585</v>
+      </c>
+      <c r="N16" s="7">
+        <v>424938</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="M16" s="7">
-        <v>537</v>
-      </c>
-      <c r="N16" s="7">
-        <v>359403</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,25 +5725,25 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7">
-        <v>8263</v>
+        <v>22294</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>410</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I17" s="7">
-        <v>11627</v>
+        <v>26558</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>411</v>
@@ -5755,19 +5755,19 @@
         <v>413</v>
       </c>
       <c r="M17" s="7">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="N17" s="7">
-        <v>19889</v>
+        <v>48852</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>128</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,40 +5776,40 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>13047</v>
+        <v>11296</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H18" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>10980</v>
+        <v>7080</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>420</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>421</v>
       </c>
       <c r="M18" s="7">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N18" s="7">
-        <v>24027</v>
+        <v>18376</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>422</v>
@@ -5827,49 +5827,49 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>37962</v>
+        <v>14914</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>37</v>
+      </c>
+      <c r="I19" s="7">
+        <v>26726</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="H19" s="7">
+      <c r="K19" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="M19" s="7">
         <v>57</v>
       </c>
-      <c r="I19" s="7">
-        <v>38163</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="N19" s="7">
+        <v>41640</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="M19" s="7">
-        <v>112</v>
-      </c>
-      <c r="N19" s="7">
-        <v>76125</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,46 +5878,46 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D20" s="7">
-        <v>2822</v>
+        <v>12066</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>435</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>2449</v>
+        <v>3525</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>162</v>
+        <v>436</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>436</v>
+        <v>48</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>272</v>
       </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N20" s="7">
-        <v>5271</v>
+        <v>15592</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>329</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>437</v>
@@ -5929,10 +5929,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="D21" s="7">
-        <v>249382</v>
+        <v>281629</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -5944,10 +5944,10 @@
         <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I21" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -5959,10 +5959,10 @@
         <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>722</v>
+        <v>756</v>
       </c>
       <c r="N21" s="7">
-        <v>484715</v>
+        <v>549399</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -6033,10 +6033,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="D23" s="7">
-        <v>25724</v>
+        <v>120520</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>447</v>
@@ -6048,10 +6048,10 @@
         <v>449</v>
       </c>
       <c r="H23" s="7">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="I23" s="7">
-        <v>38897</v>
+        <v>119083</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>450</v>
@@ -6063,10 +6063,10 @@
         <v>452</v>
       </c>
       <c r="M23" s="7">
-        <v>91</v>
+        <v>356</v>
       </c>
       <c r="N23" s="7">
-        <v>64621</v>
+        <v>239603</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>453</v>
@@ -6093,7 +6093,7 @@
         <v>456</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>457</v>
@@ -6108,10 +6108,10 @@
         <v>458</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -6123,7 +6123,7 @@
         <v>459</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>460</v>
@@ -6135,10 +6135,10 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="D25" s="7">
-        <v>120520</v>
+        <v>25724</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>461</v>
@@ -6150,10 +6150,10 @@
         <v>463</v>
       </c>
       <c r="H25" s="7">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="I25" s="7">
-        <v>119083</v>
+        <v>38897</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>464</v>
@@ -6165,10 +6165,10 @@
         <v>466</v>
       </c>
       <c r="M25" s="7">
-        <v>356</v>
+        <v>91</v>
       </c>
       <c r="N25" s="7">
-        <v>239603</v>
+        <v>64621</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>467</v>
@@ -6298,7 +6298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E0F989-FFEC-4DBC-9396-3B6571A099EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27754FFA-C42E-4E65-86DF-7932F55E54C6}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6467,49 +6467,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1138</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1531</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>293</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>2669</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>491</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>293</v>
+        <v>492</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,13 +6524,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6539,13 +6539,13 @@
         <v>1290</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6554,13 +6554,13 @@
         <v>1290</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,46 +6569,46 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>1138</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>496</v>
+        <v>45</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>1531</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>498</v>
+        <v>45</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="M7" s="7">
-        <v>5</v>
-      </c>
-      <c r="N7" s="7">
-        <v>2669</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>500</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>501</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>502</v>
@@ -6629,7 +6629,7 @@
         <v>503</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>504</v>
@@ -6641,13 +6641,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6659,7 +6659,7 @@
         <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>505</v>
@@ -6724,10 +6724,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>19812</v>
+        <v>7690</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>506</v>
@@ -6739,10 +6739,10 @@
         <v>508</v>
       </c>
       <c r="H10" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>16348</v>
+        <v>7108</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>509</v>
@@ -6754,10 +6754,10 @@
         <v>511</v>
       </c>
       <c r="M10" s="7">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>36160</v>
+        <v>14798</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>512</v>
@@ -6778,22 +6778,22 @@
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>2306</v>
+        <v>703</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>515</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>516</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>2481</v>
+        <v>2921</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>517</v>
@@ -6805,19 +6805,19 @@
         <v>519</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>4787</v>
+        <v>3624</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>520</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,43 +6832,43 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1045</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>522</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>2</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1045</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="M12" s="7">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7">
-        <v>522</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6877,49 +6877,49 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>7822</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1556</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1556</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7465</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="M13" s="7">
-        <v>20</v>
-      </c>
-      <c r="N13" s="7">
-        <v>15287</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,49 +6928,49 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>1247</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>536</v>
+        <v>494</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1242</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>537</v>
+        <v>45</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>2489</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>539</v>
+        <v>45</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>540</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>541</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,10 +6979,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D15" s="7">
-        <v>31187</v>
+        <v>8393</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -6994,10 +6994,10 @@
         <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I15" s="7">
-        <v>28058</v>
+        <v>12630</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -7009,10 +7009,10 @@
         <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="N15" s="7">
-        <v>59245</v>
+        <v>21023</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -7026,55 +7026,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7">
-        <v>7690</v>
+        <v>19812</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I16" s="7">
-        <v>7108</v>
+        <v>16348</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="M16" s="7">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="N16" s="7">
-        <v>14798</v>
+        <v>36160</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7083,49 +7083,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>7822</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>25</v>
+        <v>540</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>541</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I17" s="7">
-        <v>1556</v>
+        <v>7465</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>25</v>
+        <v>544</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N17" s="7">
-        <v>1556</v>
+        <v>15287</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>25</v>
+        <v>547</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,43 +7140,43 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>487</v>
+        <v>549</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>1045</v>
+        <v>522</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>555</v>
+        <v>315</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="M18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>1045</v>
+        <v>522</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7188,46 +7188,46 @@
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>703</v>
+        <v>2306</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2481</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="M19" s="7">
+        <v>5</v>
+      </c>
+      <c r="N19" s="7">
+        <v>4787</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2921</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="M19" s="7">
-        <v>6</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3624</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,49 +7236,49 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>1247</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>487</v>
+        <v>561</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>1242</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>25</v>
+        <v>562</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="M20" s="7">
+        <v>3</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2489</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7287,10 +7287,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D21" s="7">
-        <v>8393</v>
+        <v>31187</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -7302,10 +7302,10 @@
         <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I21" s="7">
-        <v>12630</v>
+        <v>28058</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -7317,10 +7317,10 @@
         <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="N21" s="7">
-        <v>21023</v>
+        <v>59245</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -7391,49 +7391,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D23" s="7">
-        <v>2306</v>
+        <v>9664</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>279</v>
+        <v>576</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>25</v>
+        <v>577</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I23" s="7">
-        <v>4037</v>
+        <v>11917</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="M23" s="7">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="N23" s="7">
-        <v>6343</v>
+        <v>21581</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7448,13 +7448,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7463,13 +7463,13 @@
         <v>2857</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7478,13 +7478,13 @@
         <v>2857</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7493,28 +7493,28 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>9664</v>
+        <v>2306</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>586</v>
+        <v>258</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>587</v>
+        <v>45</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H25" s="7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>11917</v>
+        <v>4037</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>589</v>
+        <v>555</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>590</v>
@@ -7523,10 +7523,10 @@
         <v>591</v>
       </c>
       <c r="M25" s="7">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>21581</v>
+        <v>6343</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>592</v>
@@ -7550,10 +7550,10 @@
         <v>1613</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>595</v>
@@ -7568,7 +7568,7 @@
         <v>53</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>596</v>
@@ -7580,10 +7580,10 @@
         <v>2855</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>597</v>
